--- a/municipal/ENG/Trading/Number of market-place and sellers on the markets and fairs/Racha-Lechkhumi and Kvemo Svaneti/Oni Municipality.xlsx
+++ b/municipal/ENG/Trading/Number of market-place and sellers on the markets and fairs/Racha-Lechkhumi and Kvemo Svaneti/Oni Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ვაჭრობა ქარ. EN\Number of market-place and sellers on the markets and fairs\Racha-Lechkhumi and Kvemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of market-place and sellers on the markets and fairs\Racha-Lechkhumi and Kvemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3433E-F138-4266-9E12-A1830D96A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="13500" windowHeight="15585"/>
+    <workbookView xWindow="2310" yWindow="2040" windowWidth="17700" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oni Municipality" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>...</t>
   </si>
@@ -38,39 +39,45 @@
     <t>Average daily number of sellers (thsd. persons)</t>
   </si>
   <si>
-    <t>... - Data is missing or confidential</t>
+    <t>Number of market-place and sellers on the markets and fairs in Oni Municipality</t>
   </si>
   <si>
-    <t>Number of market-place and sellers on the markets and fairs in Oni Municipality</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,10 +91,31 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,58 +151,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,339 +494,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="33.28515625" style="1" customWidth="1"/>
-    <col min="258" max="266" width="14.140625" style="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="33.28515625" style="1" customWidth="1"/>
-    <col min="514" max="522" width="14.140625" style="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="33.28515625" style="1" customWidth="1"/>
-    <col min="770" max="778" width="14.140625" style="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="33.28515625" style="1" customWidth="1"/>
-    <col min="1026" max="1034" width="14.140625" style="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="33.28515625" style="1" customWidth="1"/>
-    <col min="1282" max="1290" width="14.140625" style="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="33.28515625" style="1" customWidth="1"/>
-    <col min="1538" max="1546" width="14.140625" style="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="33.28515625" style="1" customWidth="1"/>
-    <col min="1794" max="1802" width="14.140625" style="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2050" max="2058" width="14.140625" style="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2306" max="2314" width="14.140625" style="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2562" max="2570" width="14.140625" style="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2818" max="2826" width="14.140625" style="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3074" max="3082" width="14.140625" style="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3330" max="3338" width="14.140625" style="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3586" max="3594" width="14.140625" style="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3842" max="3850" width="14.140625" style="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4098" max="4106" width="14.140625" style="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4354" max="4362" width="14.140625" style="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4610" max="4618" width="14.140625" style="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4866" max="4874" width="14.140625" style="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5122" max="5130" width="14.140625" style="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5378" max="5386" width="14.140625" style="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5634" max="5642" width="14.140625" style="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5890" max="5898" width="14.140625" style="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6146" max="6154" width="14.140625" style="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6402" max="6410" width="14.140625" style="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6658" max="6666" width="14.140625" style="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6914" max="6922" width="14.140625" style="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7170" max="7178" width="14.140625" style="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7426" max="7434" width="14.140625" style="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7682" max="7690" width="14.140625" style="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7938" max="7946" width="14.140625" style="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8194" max="8202" width="14.140625" style="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8450" max="8458" width="14.140625" style="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8706" max="8714" width="14.140625" style="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8962" max="8970" width="14.140625" style="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="33.28515625" style="1" customWidth="1"/>
-    <col min="9218" max="9226" width="14.140625" style="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="33.28515625" style="1" customWidth="1"/>
-    <col min="9474" max="9482" width="14.140625" style="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="33.28515625" style="1" customWidth="1"/>
-    <col min="9730" max="9738" width="14.140625" style="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="33.28515625" style="1" customWidth="1"/>
-    <col min="9986" max="9994" width="14.140625" style="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="33.28515625" style="1" customWidth="1"/>
-    <col min="10242" max="10250" width="14.140625" style="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="33.28515625" style="1" customWidth="1"/>
-    <col min="10498" max="10506" width="14.140625" style="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="33.28515625" style="1" customWidth="1"/>
-    <col min="10754" max="10762" width="14.140625" style="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="33.28515625" style="1" customWidth="1"/>
-    <col min="11010" max="11018" width="14.140625" style="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="33.28515625" style="1" customWidth="1"/>
-    <col min="11266" max="11274" width="14.140625" style="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="33.28515625" style="1" customWidth="1"/>
-    <col min="11522" max="11530" width="14.140625" style="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="33.28515625" style="1" customWidth="1"/>
-    <col min="11778" max="11786" width="14.140625" style="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="33.28515625" style="1" customWidth="1"/>
-    <col min="12034" max="12042" width="14.140625" style="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="33.28515625" style="1" customWidth="1"/>
-    <col min="12290" max="12298" width="14.140625" style="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="33.28515625" style="1" customWidth="1"/>
-    <col min="12546" max="12554" width="14.140625" style="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="33.28515625" style="1" customWidth="1"/>
-    <col min="12802" max="12810" width="14.140625" style="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="33.28515625" style="1" customWidth="1"/>
-    <col min="13058" max="13066" width="14.140625" style="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="33.28515625" style="1" customWidth="1"/>
-    <col min="13314" max="13322" width="14.140625" style="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="33.28515625" style="1" customWidth="1"/>
-    <col min="13570" max="13578" width="14.140625" style="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="33.28515625" style="1" customWidth="1"/>
-    <col min="13826" max="13834" width="14.140625" style="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="33.28515625" style="1" customWidth="1"/>
-    <col min="14082" max="14090" width="14.140625" style="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="33.28515625" style="1" customWidth="1"/>
-    <col min="14338" max="14346" width="14.140625" style="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="33.28515625" style="1" customWidth="1"/>
-    <col min="14594" max="14602" width="14.140625" style="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="33.28515625" style="1" customWidth="1"/>
-    <col min="14850" max="14858" width="14.140625" style="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="33.28515625" style="1" customWidth="1"/>
-    <col min="15106" max="15114" width="14.140625" style="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="33.28515625" style="1" customWidth="1"/>
-    <col min="15362" max="15370" width="14.140625" style="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="33.28515625" style="1" customWidth="1"/>
-    <col min="15618" max="15626" width="14.140625" style="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="33.28515625" style="1" customWidth="1"/>
-    <col min="15874" max="15882" width="14.140625" style="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="33.28515625" style="1" customWidth="1"/>
-    <col min="16130" max="16138" width="14.140625" style="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.7109375" style="5" customWidth="1"/>
+    <col min="18" max="256" width="9.140625" style="5"/>
+    <col min="257" max="257" width="33.28515625" style="5" customWidth="1"/>
+    <col min="258" max="266" width="14.140625" style="5" customWidth="1"/>
+    <col min="267" max="512" width="9.140625" style="5"/>
+    <col min="513" max="513" width="33.28515625" style="5" customWidth="1"/>
+    <col min="514" max="522" width="14.140625" style="5" customWidth="1"/>
+    <col min="523" max="768" width="9.140625" style="5"/>
+    <col min="769" max="769" width="33.28515625" style="5" customWidth="1"/>
+    <col min="770" max="778" width="14.140625" style="5" customWidth="1"/>
+    <col min="779" max="1024" width="9.140625" style="5"/>
+    <col min="1025" max="1025" width="33.28515625" style="5" customWidth="1"/>
+    <col min="1026" max="1034" width="14.140625" style="5" customWidth="1"/>
+    <col min="1035" max="1280" width="9.140625" style="5"/>
+    <col min="1281" max="1281" width="33.28515625" style="5" customWidth="1"/>
+    <col min="1282" max="1290" width="14.140625" style="5" customWidth="1"/>
+    <col min="1291" max="1536" width="9.140625" style="5"/>
+    <col min="1537" max="1537" width="33.28515625" style="5" customWidth="1"/>
+    <col min="1538" max="1546" width="14.140625" style="5" customWidth="1"/>
+    <col min="1547" max="1792" width="9.140625" style="5"/>
+    <col min="1793" max="1793" width="33.28515625" style="5" customWidth="1"/>
+    <col min="1794" max="1802" width="14.140625" style="5" customWidth="1"/>
+    <col min="1803" max="2048" width="9.140625" style="5"/>
+    <col min="2049" max="2049" width="33.28515625" style="5" customWidth="1"/>
+    <col min="2050" max="2058" width="14.140625" style="5" customWidth="1"/>
+    <col min="2059" max="2304" width="9.140625" style="5"/>
+    <col min="2305" max="2305" width="33.28515625" style="5" customWidth="1"/>
+    <col min="2306" max="2314" width="14.140625" style="5" customWidth="1"/>
+    <col min="2315" max="2560" width="9.140625" style="5"/>
+    <col min="2561" max="2561" width="33.28515625" style="5" customWidth="1"/>
+    <col min="2562" max="2570" width="14.140625" style="5" customWidth="1"/>
+    <col min="2571" max="2816" width="9.140625" style="5"/>
+    <col min="2817" max="2817" width="33.28515625" style="5" customWidth="1"/>
+    <col min="2818" max="2826" width="14.140625" style="5" customWidth="1"/>
+    <col min="2827" max="3072" width="9.140625" style="5"/>
+    <col min="3073" max="3073" width="33.28515625" style="5" customWidth="1"/>
+    <col min="3074" max="3082" width="14.140625" style="5" customWidth="1"/>
+    <col min="3083" max="3328" width="9.140625" style="5"/>
+    <col min="3329" max="3329" width="33.28515625" style="5" customWidth="1"/>
+    <col min="3330" max="3338" width="14.140625" style="5" customWidth="1"/>
+    <col min="3339" max="3584" width="9.140625" style="5"/>
+    <col min="3585" max="3585" width="33.28515625" style="5" customWidth="1"/>
+    <col min="3586" max="3594" width="14.140625" style="5" customWidth="1"/>
+    <col min="3595" max="3840" width="9.140625" style="5"/>
+    <col min="3841" max="3841" width="33.28515625" style="5" customWidth="1"/>
+    <col min="3842" max="3850" width="14.140625" style="5" customWidth="1"/>
+    <col min="3851" max="4096" width="9.140625" style="5"/>
+    <col min="4097" max="4097" width="33.28515625" style="5" customWidth="1"/>
+    <col min="4098" max="4106" width="14.140625" style="5" customWidth="1"/>
+    <col min="4107" max="4352" width="9.140625" style="5"/>
+    <col min="4353" max="4353" width="33.28515625" style="5" customWidth="1"/>
+    <col min="4354" max="4362" width="14.140625" style="5" customWidth="1"/>
+    <col min="4363" max="4608" width="9.140625" style="5"/>
+    <col min="4609" max="4609" width="33.28515625" style="5" customWidth="1"/>
+    <col min="4610" max="4618" width="14.140625" style="5" customWidth="1"/>
+    <col min="4619" max="4864" width="9.140625" style="5"/>
+    <col min="4865" max="4865" width="33.28515625" style="5" customWidth="1"/>
+    <col min="4866" max="4874" width="14.140625" style="5" customWidth="1"/>
+    <col min="4875" max="5120" width="9.140625" style="5"/>
+    <col min="5121" max="5121" width="33.28515625" style="5" customWidth="1"/>
+    <col min="5122" max="5130" width="14.140625" style="5" customWidth="1"/>
+    <col min="5131" max="5376" width="9.140625" style="5"/>
+    <col min="5377" max="5377" width="33.28515625" style="5" customWidth="1"/>
+    <col min="5378" max="5386" width="14.140625" style="5" customWidth="1"/>
+    <col min="5387" max="5632" width="9.140625" style="5"/>
+    <col min="5633" max="5633" width="33.28515625" style="5" customWidth="1"/>
+    <col min="5634" max="5642" width="14.140625" style="5" customWidth="1"/>
+    <col min="5643" max="5888" width="9.140625" style="5"/>
+    <col min="5889" max="5889" width="33.28515625" style="5" customWidth="1"/>
+    <col min="5890" max="5898" width="14.140625" style="5" customWidth="1"/>
+    <col min="5899" max="6144" width="9.140625" style="5"/>
+    <col min="6145" max="6145" width="33.28515625" style="5" customWidth="1"/>
+    <col min="6146" max="6154" width="14.140625" style="5" customWidth="1"/>
+    <col min="6155" max="6400" width="9.140625" style="5"/>
+    <col min="6401" max="6401" width="33.28515625" style="5" customWidth="1"/>
+    <col min="6402" max="6410" width="14.140625" style="5" customWidth="1"/>
+    <col min="6411" max="6656" width="9.140625" style="5"/>
+    <col min="6657" max="6657" width="33.28515625" style="5" customWidth="1"/>
+    <col min="6658" max="6666" width="14.140625" style="5" customWidth="1"/>
+    <col min="6667" max="6912" width="9.140625" style="5"/>
+    <col min="6913" max="6913" width="33.28515625" style="5" customWidth="1"/>
+    <col min="6914" max="6922" width="14.140625" style="5" customWidth="1"/>
+    <col min="6923" max="7168" width="9.140625" style="5"/>
+    <col min="7169" max="7169" width="33.28515625" style="5" customWidth="1"/>
+    <col min="7170" max="7178" width="14.140625" style="5" customWidth="1"/>
+    <col min="7179" max="7424" width="9.140625" style="5"/>
+    <col min="7425" max="7425" width="33.28515625" style="5" customWidth="1"/>
+    <col min="7426" max="7434" width="14.140625" style="5" customWidth="1"/>
+    <col min="7435" max="7680" width="9.140625" style="5"/>
+    <col min="7681" max="7681" width="33.28515625" style="5" customWidth="1"/>
+    <col min="7682" max="7690" width="14.140625" style="5" customWidth="1"/>
+    <col min="7691" max="7936" width="9.140625" style="5"/>
+    <col min="7937" max="7937" width="33.28515625" style="5" customWidth="1"/>
+    <col min="7938" max="7946" width="14.140625" style="5" customWidth="1"/>
+    <col min="7947" max="8192" width="9.140625" style="5"/>
+    <col min="8193" max="8193" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8194" max="8202" width="14.140625" style="5" customWidth="1"/>
+    <col min="8203" max="8448" width="9.140625" style="5"/>
+    <col min="8449" max="8449" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8450" max="8458" width="14.140625" style="5" customWidth="1"/>
+    <col min="8459" max="8704" width="9.140625" style="5"/>
+    <col min="8705" max="8705" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8706" max="8714" width="14.140625" style="5" customWidth="1"/>
+    <col min="8715" max="8960" width="9.140625" style="5"/>
+    <col min="8961" max="8961" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8962" max="8970" width="14.140625" style="5" customWidth="1"/>
+    <col min="8971" max="9216" width="9.140625" style="5"/>
+    <col min="9217" max="9217" width="33.28515625" style="5" customWidth="1"/>
+    <col min="9218" max="9226" width="14.140625" style="5" customWidth="1"/>
+    <col min="9227" max="9472" width="9.140625" style="5"/>
+    <col min="9473" max="9473" width="33.28515625" style="5" customWidth="1"/>
+    <col min="9474" max="9482" width="14.140625" style="5" customWidth="1"/>
+    <col min="9483" max="9728" width="9.140625" style="5"/>
+    <col min="9729" max="9729" width="33.28515625" style="5" customWidth="1"/>
+    <col min="9730" max="9738" width="14.140625" style="5" customWidth="1"/>
+    <col min="9739" max="9984" width="9.140625" style="5"/>
+    <col min="9985" max="9985" width="33.28515625" style="5" customWidth="1"/>
+    <col min="9986" max="9994" width="14.140625" style="5" customWidth="1"/>
+    <col min="9995" max="10240" width="9.140625" style="5"/>
+    <col min="10241" max="10241" width="33.28515625" style="5" customWidth="1"/>
+    <col min="10242" max="10250" width="14.140625" style="5" customWidth="1"/>
+    <col min="10251" max="10496" width="9.140625" style="5"/>
+    <col min="10497" max="10497" width="33.28515625" style="5" customWidth="1"/>
+    <col min="10498" max="10506" width="14.140625" style="5" customWidth="1"/>
+    <col min="10507" max="10752" width="9.140625" style="5"/>
+    <col min="10753" max="10753" width="33.28515625" style="5" customWidth="1"/>
+    <col min="10754" max="10762" width="14.140625" style="5" customWidth="1"/>
+    <col min="10763" max="11008" width="9.140625" style="5"/>
+    <col min="11009" max="11009" width="33.28515625" style="5" customWidth="1"/>
+    <col min="11010" max="11018" width="14.140625" style="5" customWidth="1"/>
+    <col min="11019" max="11264" width="9.140625" style="5"/>
+    <col min="11265" max="11265" width="33.28515625" style="5" customWidth="1"/>
+    <col min="11266" max="11274" width="14.140625" style="5" customWidth="1"/>
+    <col min="11275" max="11520" width="9.140625" style="5"/>
+    <col min="11521" max="11521" width="33.28515625" style="5" customWidth="1"/>
+    <col min="11522" max="11530" width="14.140625" style="5" customWidth="1"/>
+    <col min="11531" max="11776" width="9.140625" style="5"/>
+    <col min="11777" max="11777" width="33.28515625" style="5" customWidth="1"/>
+    <col min="11778" max="11786" width="14.140625" style="5" customWidth="1"/>
+    <col min="11787" max="12032" width="9.140625" style="5"/>
+    <col min="12033" max="12033" width="33.28515625" style="5" customWidth="1"/>
+    <col min="12034" max="12042" width="14.140625" style="5" customWidth="1"/>
+    <col min="12043" max="12288" width="9.140625" style="5"/>
+    <col min="12289" max="12289" width="33.28515625" style="5" customWidth="1"/>
+    <col min="12290" max="12298" width="14.140625" style="5" customWidth="1"/>
+    <col min="12299" max="12544" width="9.140625" style="5"/>
+    <col min="12545" max="12545" width="33.28515625" style="5" customWidth="1"/>
+    <col min="12546" max="12554" width="14.140625" style="5" customWidth="1"/>
+    <col min="12555" max="12800" width="9.140625" style="5"/>
+    <col min="12801" max="12801" width="33.28515625" style="5" customWidth="1"/>
+    <col min="12802" max="12810" width="14.140625" style="5" customWidth="1"/>
+    <col min="12811" max="13056" width="9.140625" style="5"/>
+    <col min="13057" max="13057" width="33.28515625" style="5" customWidth="1"/>
+    <col min="13058" max="13066" width="14.140625" style="5" customWidth="1"/>
+    <col min="13067" max="13312" width="9.140625" style="5"/>
+    <col min="13313" max="13313" width="33.28515625" style="5" customWidth="1"/>
+    <col min="13314" max="13322" width="14.140625" style="5" customWidth="1"/>
+    <col min="13323" max="13568" width="9.140625" style="5"/>
+    <col min="13569" max="13569" width="33.28515625" style="5" customWidth="1"/>
+    <col min="13570" max="13578" width="14.140625" style="5" customWidth="1"/>
+    <col min="13579" max="13824" width="9.140625" style="5"/>
+    <col min="13825" max="13825" width="33.28515625" style="5" customWidth="1"/>
+    <col min="13826" max="13834" width="14.140625" style="5" customWidth="1"/>
+    <col min="13835" max="14080" width="9.140625" style="5"/>
+    <col min="14081" max="14081" width="33.28515625" style="5" customWidth="1"/>
+    <col min="14082" max="14090" width="14.140625" style="5" customWidth="1"/>
+    <col min="14091" max="14336" width="9.140625" style="5"/>
+    <col min="14337" max="14337" width="33.28515625" style="5" customWidth="1"/>
+    <col min="14338" max="14346" width="14.140625" style="5" customWidth="1"/>
+    <col min="14347" max="14592" width="9.140625" style="5"/>
+    <col min="14593" max="14593" width="33.28515625" style="5" customWidth="1"/>
+    <col min="14594" max="14602" width="14.140625" style="5" customWidth="1"/>
+    <col min="14603" max="14848" width="9.140625" style="5"/>
+    <col min="14849" max="14849" width="33.28515625" style="5" customWidth="1"/>
+    <col min="14850" max="14858" width="14.140625" style="5" customWidth="1"/>
+    <col min="14859" max="15104" width="9.140625" style="5"/>
+    <col min="15105" max="15105" width="33.28515625" style="5" customWidth="1"/>
+    <col min="15106" max="15114" width="14.140625" style="5" customWidth="1"/>
+    <col min="15115" max="15360" width="9.140625" style="5"/>
+    <col min="15361" max="15361" width="33.28515625" style="5" customWidth="1"/>
+    <col min="15362" max="15370" width="14.140625" style="5" customWidth="1"/>
+    <col min="15371" max="15616" width="9.140625" style="5"/>
+    <col min="15617" max="15617" width="33.28515625" style="5" customWidth="1"/>
+    <col min="15618" max="15626" width="14.140625" style="5" customWidth="1"/>
+    <col min="15627" max="15872" width="9.140625" style="5"/>
+    <col min="15873" max="15873" width="33.28515625" style="5" customWidth="1"/>
+    <col min="15874" max="15882" width="14.140625" style="5" customWidth="1"/>
+    <col min="15883" max="16128" width="9.140625" style="5"/>
+    <col min="16129" max="16129" width="33.28515625" style="5" customWidth="1"/>
+    <col min="16130" max="16138" width="14.140625" style="5" customWidth="1"/>
+    <col min="16139" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
         <v>2013</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>2014</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>2015</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>2016</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>2017</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>2018</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>2019</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>2020</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>2021</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>